--- a/Executible/v0.0.1/Example_file.xlsx
+++ b/Executible/v0.0.1/Example_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8CED7-1E14-4952-A602-81C2F83FA76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D84184-D8FC-4670-99D1-4D71C195ACD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Getränkeliste Küche 3.1</t>
-  </si>
-  <si>
-    <t>Guthaben</t>
   </si>
   <si>
     <t>Spezi</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Zimmer</t>
+  </si>
+  <si>
+    <t>€</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,12 +317,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,15 +337,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,76 +620,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="13" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4" style="8" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
